--- a/Records.xlsx
+++ b/Records.xlsx
@@ -5919,7 +5919,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
